--- a/data/nc/conditional_sampling_ncdmf/datasheets/cond_e6.xlsx
+++ b/data/nc/conditional_sampling_ncdmf/datasheets/cond_e6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megancarr/Documents/400_data_analytics/shellbase_bal/data/nc/conditional_sampling_ncdmf/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A634A392-0ADB-0E41-A58E-A4A9FC56C6C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF4F668-4E32-B94A-9460-3310A6FDEF5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="500" windowWidth="26200" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2560" yWindow="500" windowWidth="26200" windowHeight="15280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Special Sampling" sheetId="5" r:id="rId1"/>
@@ -32,22 +32,11 @@
     <definedName name="Print_Titles_MI" localSheetId="2">COND_FC!$A:$B</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>STATION</t>
   </si>
@@ -77,12 +66,6 @@
   </si>
   <si>
     <t xml:space="preserve">C </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Station </t>
-  </si>
-  <si>
-    <t>No.</t>
   </si>
   <si>
     <t>upper N.Rvr.</t>
@@ -187,7 +170,7 @@
     <numFmt numFmtId="165" formatCode="0_)"/>
     <numFmt numFmtId="166" formatCode="0.0_)"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="168" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -220,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
@@ -245,23 +228,23 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -336,6 +319,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -679,18 +663,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" s="11">
         <v>39576</v>
@@ -758,8 +742,8 @@
   <dimension ref="A1:WC234"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="VT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="WC6" sqref="WC6"/>
+      <pane xSplit="3" topLeftCell="VH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -848,7 +832,7 @@
   <sheetData>
     <row r="1" spans="1:601" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
@@ -2695,10 +2679,10 @@
     </row>
     <row r="2" spans="1:601" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="22"/>
@@ -3387,7 +3371,7 @@
     </row>
     <row r="3" spans="1:601" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="28">
         <v>4</v>
@@ -4680,7 +4664,7 @@
     </row>
     <row r="4" spans="1:601" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="28">
         <v>2</v>
@@ -5590,10 +5574,10 @@
     </row>
     <row r="5" spans="1:601" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="22"/>
@@ -6255,10 +6239,10 @@
     </row>
     <row r="6" spans="1:601" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
@@ -6878,7 +6862,7 @@
     </row>
     <row r="7" spans="1:601" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="28">
         <v>17</v>
@@ -7815,7 +7799,7 @@
     </row>
     <row r="8" spans="1:601" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="28">
         <v>18</v>
@@ -8078,7 +8062,7 @@
     </row>
     <row r="9" spans="1:601" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="28">
         <v>14</v>
@@ -8746,7 +8730,7 @@
     </row>
     <row r="10" spans="1:601" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="33">
         <v>19</v>
@@ -8935,7 +8919,7 @@
     </row>
     <row r="11" spans="1:601" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="28">
         <v>20</v>
@@ -9115,10 +9099,10 @@
     </row>
     <row r="12" spans="1:601" x14ac:dyDescent="0.15">
       <c r="A12" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
@@ -9418,8 +9402,8 @@
       <c r="OG13" s="27">
         <v>2</v>
       </c>
-      <c r="OL13" s="47" t="s">
-        <v>25</v>
+      <c r="OL13" s="48" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:601" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -9522,7 +9506,7 @@
       <c r="FW14" s="32"/>
       <c r="FX14" s="32"/>
       <c r="FY14" s="32"/>
-      <c r="OL14" s="47"/>
+      <c r="OL14" s="48"/>
       <c r="RX14" s="27">
         <v>170</v>
       </c>
@@ -9923,7 +9907,7 @@
       <c r="LB15" s="27">
         <v>33</v>
       </c>
-      <c r="OL15" s="47"/>
+      <c r="OL15" s="48"/>
     </row>
     <row r="16" spans="1:601" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="28">
@@ -10089,7 +10073,7 @@
       <c r="OJ16" s="27">
         <v>1.7</v>
       </c>
-      <c r="OL16" s="47"/>
+      <c r="OL16" s="48"/>
       <c r="OM16" s="27">
         <v>7.8</v>
       </c>
@@ -10344,7 +10328,7 @@
       <c r="OJ17" s="27">
         <v>1.7</v>
       </c>
-      <c r="OL17" s="47"/>
+      <c r="OL17" s="48"/>
       <c r="OM17" s="27">
         <v>11</v>
       </c>
@@ -11022,7 +11006,7 @@
       <c r="OJ18" s="27">
         <v>1.7</v>
       </c>
-      <c r="OL18" s="47"/>
+      <c r="OL18" s="48"/>
       <c r="OO18" s="27">
         <v>2</v>
       </c>
@@ -11804,7 +11788,7 @@
       <c r="NS19" s="27">
         <v>4.5</v>
       </c>
-      <c r="OL19" s="47"/>
+      <c r="OL19" s="48"/>
       <c r="OO19" s="27">
         <v>1.7</v>
       </c>
@@ -12265,7 +12249,7 @@
         <v>130</v>
       </c>
       <c r="KK20" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="KL20" s="27">
         <v>22</v>
@@ -12405,7 +12389,7 @@
       <c r="OJ20" s="27">
         <v>7.8</v>
       </c>
-      <c r="OL20" s="47"/>
+      <c r="OL20" s="48"/>
       <c r="OO20" s="27">
         <v>1.7</v>
       </c>
@@ -12846,14 +12830,14 @@
       <c r="NS21" s="27">
         <v>17</v>
       </c>
-      <c r="OL21" s="47"/>
+      <c r="OL21" s="48"/>
     </row>
     <row r="22" spans="2:521" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="28">
         <v>3</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22" s="24">
         <v>49</v>
@@ -13358,14 +13342,14 @@
       <c r="JZ22" s="27">
         <v>21</v>
       </c>
-      <c r="OL22" s="47"/>
+      <c r="OL22" s="48"/>
     </row>
     <row r="23" spans="2:521" s="27" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="28">
         <v>45</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" s="24">
         <v>49</v>
@@ -14138,7 +14122,7 @@
       <c r="OJ23" s="27">
         <v>7.8</v>
       </c>
-      <c r="OL23" s="47"/>
+      <c r="OL23" s="48"/>
       <c r="OM23" s="35"/>
       <c r="OO23" s="27">
         <v>11</v>
@@ -14491,10 +14475,10 @@
       <c r="KB24" s="27">
         <v>240</v>
       </c>
-      <c r="OL24" s="47"/>
+      <c r="OL24" s="48"/>
       <c r="OM24" s="35"/>
       <c r="QB24" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:521" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -14640,7 +14624,7 @@
         <v>13</v>
       </c>
       <c r="EH25" s="31"/>
-      <c r="OL25" s="47"/>
+      <c r="OL25" s="48"/>
       <c r="OM25" s="35"/>
     </row>
     <row r="26" spans="2:521" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -14797,7 +14781,7 @@
       <c r="NS26" s="27">
         <v>1.7</v>
       </c>
-      <c r="OL26" s="47"/>
+      <c r="OL26" s="48"/>
       <c r="OM26" s="35"/>
     </row>
     <row r="27" spans="2:521" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -14975,7 +14959,7 @@
       <c r="FC27" s="27">
         <v>49</v>
       </c>
-      <c r="OL27" s="47"/>
+      <c r="OL27" s="48"/>
       <c r="OM27" s="35"/>
     </row>
     <row r="28" spans="2:521" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -15126,7 +15110,7 @@
       <c r="JZ28" s="27">
         <v>33</v>
       </c>
-      <c r="OL28" s="47"/>
+      <c r="OL28" s="48"/>
       <c r="OM28" s="35"/>
     </row>
     <row r="29" spans="2:521" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -15284,12 +15268,12 @@
       <c r="OG29" s="27">
         <v>1.7</v>
       </c>
-      <c r="OL29" s="47"/>
+      <c r="OL29" s="48"/>
       <c r="OM29" s="35"/>
     </row>
     <row r="30" spans="2:521" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="24"/>
@@ -15436,7 +15420,7 @@
       <c r="NM30" s="27">
         <v>170</v>
       </c>
-      <c r="OL30" s="47"/>
+      <c r="OL30" s="48"/>
       <c r="OM30" s="35"/>
     </row>
     <row r="31" spans="2:521" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -15582,7 +15566,7 @@
       <c r="GW31" s="27">
         <v>2</v>
       </c>
-      <c r="OL31" s="47"/>
+      <c r="OL31" s="48"/>
       <c r="OM31" s="35"/>
     </row>
     <row r="32" spans="2:521" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -15728,7 +15712,7 @@
       <c r="GT32" s="27">
         <v>1.7</v>
       </c>
-      <c r="OL32" s="47"/>
+      <c r="OL32" s="48"/>
       <c r="OM32" s="35"/>
     </row>
     <row r="33" spans="1:522" s="27" customFormat="1" x14ac:dyDescent="0.15">
@@ -15874,7 +15858,7 @@
       <c r="GT33" s="27">
         <v>1.7</v>
       </c>
-      <c r="OL33" s="47"/>
+      <c r="OL33" s="48"/>
       <c r="OM33" s="35"/>
     </row>
     <row r="34" spans="1:522" x14ac:dyDescent="0.15">
@@ -16399,7 +16383,7 @@
     <row r="35" spans="1:522" x14ac:dyDescent="0.15">
       <c r="A35" s="27"/>
       <c r="B35" s="41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="24"/>
@@ -16920,7 +16904,7 @@
     <row r="36" spans="1:522" x14ac:dyDescent="0.15">
       <c r="A36" s="27"/>
       <c r="B36" s="41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="24"/>
@@ -17438,7 +17422,7 @@
     </row>
     <row r="37" spans="1:522" x14ac:dyDescent="0.15">
       <c r="B37" s="36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -17921,7 +17905,7 @@
     </row>
     <row r="42" spans="1:522" x14ac:dyDescent="0.15">
       <c r="B42" s="40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
@@ -18016,7 +18000,7 @@
     </row>
     <row r="43" spans="1:522" x14ac:dyDescent="0.15">
       <c r="B43" s="36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
@@ -19166,7 +19150,7 @@
     <row r="46" spans="1:522" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="31"/>
       <c r="B46" s="41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
@@ -19696,7 +19680,7 @@
       <c r="B47" s="28">
         <v>6</v>
       </c>
-      <c r="C47" s="22"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
@@ -20610,7 +20594,7 @@
     </row>
     <row r="54" spans="2:411" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C54" s="45"/>
       <c r="D54" s="22"/>
@@ -20754,7 +20738,7 @@
     </row>
     <row r="55" spans="2:411" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C55" s="45"/>
       <c r="D55" s="22"/>
@@ -21120,7 +21104,7 @@
     </row>
     <row r="58" spans="2:411" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B58" s="44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C58" s="45"/>
       <c r="D58" s="22"/>
@@ -37697,9 +37681,9 @@
   <sheetPr transitionEvaluation="1"/>
   <dimension ref="A1:IV57"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" colorId="22" zoomScale="87" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="87" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="A39" sqref="A39:B49"/>
+      <selection pane="topRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
